--- a/data/Cote d'Ivoire BoD.xlsx
+++ b/data/Cote d'Ivoire BoD.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gerard/Dropbox/Optima UHC/IHME_GBD/Cote d'ivoire/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="24560" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="1035" yWindow="1680" windowWidth="24555" windowHeight="14325" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +14,6 @@
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1153,7 +1145,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1188,7 +1180,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1365,7 +1357,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1375,17 +1367,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F335"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="C218" sqref="C218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>334</v>
       </c>
@@ -1405,7 +1397,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1425,7 +1417,7 @@
         <v>2139496.1620900002</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1445,7 +1437,7 @@
         <v>187.66796143600001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1465,7 +1457,7 @@
         <v>4122621.7797099999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1485,7 +1477,7 @@
         <v>29171.554667799999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1505,7 +1497,7 @@
         <v>3134735.6230100002</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1525,7 +1517,7 @@
         <v>950939.78019199998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1545,7 +1537,7 @@
         <v>7774.8218480699998</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1565,7 +1557,7 @@
         <v>219.907821246</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1585,7 +1577,7 @@
         <v>245.89054454699999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1605,7 +1597,7 @@
         <v>9075.7761131400002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1625,7 +1617,7 @@
         <v>27.086891952399998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1645,7 +1637,7 @@
         <v>2325595.7100999998</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1665,7 +1657,7 @@
         <v>8217.34659637</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1685,7 +1677,7 @@
         <v>235901.17654499999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1705,7 +1697,7 @@
         <v>1608.1755843999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1725,7 +1717,7 @@
         <v>22712201.309999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1745,7 +1737,7 @@
         <v>38013.329659499999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1765,7 +1757,7 @@
         <v>22894.036687299998</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1785,7 +1777,7 @@
         <v>1430.9767451</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1805,7 +1797,7 @@
         <v>132400.60496</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1825,7 +1817,7 @@
         <v>5797.07263169</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1845,7 +1837,7 @@
         <v>617801.71353399998</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1865,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1885,7 +1877,7 @@
         <v>2829.4473326900002</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1905,7 +1897,7 @@
         <v>94.774770350200001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1925,7 +1917,7 @@
         <v>2245099.1473400001</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1945,7 +1937,7 @@
         <v>140922.753856</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1965,7 +1957,7 @@
         <v>1211479.3750199999</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1985,7 +1977,7 @@
         <v>44342.139429299998</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2005,7 +1997,7 @@
         <v>316179.59833399998</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2025,7 +2017,7 @@
         <v>51781.3555528</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2045,7 +2037,7 @@
         <v>191590.989497</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2065,7 +2057,7 @@
         <v>224917.45428100001</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2085,7 +2077,7 @@
         <v>119752.602553</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2105,7 +2097,7 @@
         <v>730.12743673600005</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2125,7 +2117,7 @@
         <v>491.83265366099999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2145,7 +2137,7 @@
         <v>6161.1718487999997</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2165,7 +2157,7 @@
         <v>14712.941894400001</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2185,7 +2177,7 @@
         <v>31359.897309200001</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2205,7 +2197,7 @@
         <v>10855.1489778</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2225,7 +2217,7 @@
         <v>1072414.8172200001</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2245,7 +2237,7 @@
         <v>2472416.2345099999</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2265,7 +2257,7 @@
         <v>5950138.3910600003</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2285,7 +2277,7 @@
         <v>166761.86426999999</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2305,7 +2297,7 @@
         <v>8149.79369296</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2325,7 +2317,7 @@
         <v>4294.8164792699999</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2345,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2365,7 +2357,7 @@
         <v>325216.34806300001</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2385,7 +2377,7 @@
         <v>1214451.4934100001</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2405,7 +2397,7 @@
         <v>385304.06747900002</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2425,7 +2417,7 @@
         <v>241754.140507</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2445,7 +2437,7 @@
         <v>258929.96946299999</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2465,7 +2457,7 @@
         <v>328463.31595800002</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2485,7 +2477,7 @@
         <v>232.38417261399999</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2505,7 +2497,7 @@
         <v>163.44058271</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2525,7 +2517,7 @@
         <v>265219.65246499999</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2545,7 +2537,7 @@
         <v>1474469.2397799999</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2565,7 +2557,7 @@
         <v>57562.0605794</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2585,7 +2577,7 @@
         <v>8992.1591157799994</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2605,7 +2597,7 @@
         <v>20639.9264091</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2625,7 +2617,7 @@
         <v>8411.3940431499996</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2645,7 +2637,7 @@
         <v>19518.581011400001</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2665,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2685,7 +2677,7 @@
         <v>2777.4275875100002</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2705,7 +2697,7 @@
         <v>1075.01435178</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2725,7 +2717,7 @@
         <v>20437479.027199998</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2745,7 +2737,7 @@
         <v>236474.83910400001</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2765,7 +2757,7 @@
         <v>25310.0124994</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2785,7 +2777,7 @@
         <v>235708.687477</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2805,7 +2797,7 @@
         <v>52907.058287100001</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2825,7 +2817,7 @@
         <v>22870.1494709</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2845,7 +2837,7 @@
         <v>8.1720037522099993</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2865,7 +2857,7 @@
         <v>43429.072323</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2885,7 +2877,7 @@
         <v>8166.9588848599997</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2905,7 +2897,7 @@
         <v>31953.2415544</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2925,7 +2917,7 @@
         <v>1781.3204012199999</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2945,7 +2937,7 @@
         <v>21603.8703455</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2965,7 +2957,7 @@
         <v>617253.18594500003</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2985,7 +2977,7 @@
         <v>1065815.97117</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3005,7 +2997,7 @@
         <v>531798.21215599997</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3025,7 +3017,7 @@
         <v>11623147.0022</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3045,7 +3037,7 @@
         <v>1617541.7246600001</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3065,7 +3057,7 @@
         <v>340709.41003099998</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3085,7 +3077,7 @@
         <v>6817245.6083000004</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3105,7 +3097,7 @@
         <v>23531.893793899999</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3125,7 +3117,7 @@
         <v>334292.25252099999</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3145,7 +3137,7 @@
         <v>0.97645197717700005</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3165,7 +3157,7 @@
         <v>4041.9224039699998</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3185,7 +3177,7 @@
         <v>9108.6481534600007</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3205,7 +3197,7 @@
         <v>95991.570225799995</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3225,7 +3217,7 @@
         <v>17898.148607399999</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3245,7 +3237,7 @@
         <v>224715.63159599999</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3265,7 +3257,7 @@
         <v>21312.8595695</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3285,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3305,7 +3297,7 @@
         <v>509286.84209599998</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3325,7 +3317,7 @@
         <v>47299.058067600003</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3345,7 +3337,7 @@
         <v>1464.8493365700001</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3365,7 +3357,7 @@
         <v>336750.15949599998</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3385,7 +3377,7 @@
         <v>4414.6993568099997</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3405,7 +3397,7 @@
         <v>180837.37471500001</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3425,7 +3417,7 @@
         <v>81378.4891585</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3445,7 +3437,7 @@
         <v>109.789161155</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3465,7 +3457,7 @@
         <v>831.53158495800005</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3485,7 +3477,7 @@
         <v>279.561268719</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3505,7 +3497,7 @@
         <v>412997.74418899999</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3525,7 +3517,7 @@
         <v>2.9084552402299999</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3545,7 +3537,7 @@
         <v>888547.56441899994</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3565,7 +3557,7 @@
         <v>19327.9236112</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3585,7 +3577,7 @@
         <v>253770.53736700001</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3605,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3625,7 +3617,7 @@
         <v>26421.1053531</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3645,7 +3637,7 @@
         <v>177952.15667</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3665,7 +3657,7 @@
         <v>7744.2710620199996</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3685,7 +3677,7 @@
         <v>61329.450332499997</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3705,7 +3697,7 @@
         <v>3459428.2546100002</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3725,7 +3717,7 @@
         <v>3050200.6371499998</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3745,7 +3737,7 @@
         <v>3345826.8781599998</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3765,7 +3757,7 @@
         <v>11436.0588806</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3785,7 +3777,7 @@
         <v>109.052789593</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3805,7 +3797,7 @@
         <v>104786.245807</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3825,7 +3817,7 @@
         <v>2851762.8181599998</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3845,7 +3837,7 @@
         <v>1044459.33186</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3865,7 +3857,7 @@
         <v>6971.4970055200001</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3885,7 +3877,7 @@
         <v>223179.46686799999</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3905,7 +3897,7 @@
         <v>50910.823681100002</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3925,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3945,7 +3937,7 @@
         <v>2292569.7395100002</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3965,7 +3957,7 @@
         <v>12232.0029712</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3985,7 +3977,7 @@
         <v>9259221.4826400001</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4005,7 +3997,7 @@
         <v>4825.1074530400001</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4025,7 +4017,7 @@
         <v>5690.4852214299999</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4045,7 +4037,7 @@
         <v>522667.56447300001</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4065,7 +4057,7 @@
         <v>1.10317180365</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4085,7 +4077,7 @@
         <v>170.993521929</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4105,7 +4097,7 @@
         <v>6496993.1238500001</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4125,7 +4117,7 @@
         <v>522667.56447300001</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4145,7 +4137,7 @@
         <v>171.60308980100001</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4165,7 +4157,7 @@
         <v>4574261.3545599999</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4185,7 +4177,7 @@
         <v>17765.050627799999</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4205,7 +4197,7 @@
         <v>497191.78001799999</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4225,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4245,7 +4237,7 @@
         <v>1020.0001323</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4265,7 +4257,7 @@
         <v>162489.90366700001</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4285,7 +4277,7 @@
         <v>3334868.6987700001</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4305,7 +4297,7 @@
         <v>566248.89898499998</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4325,7 +4317,7 @@
         <v>1603.0876453599999</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4345,7 +4337,7 @@
         <v>1988.58220454</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4365,7 +4357,7 @@
         <v>7992475.0836800002</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4385,7 +4377,7 @@
         <v>18593.767156800001</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4405,7 +4397,7 @@
         <v>335341.60522199998</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4425,7 +4417,7 @@
         <v>220906.28808</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4445,7 +4437,7 @@
         <v>73162.413057700003</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4465,7 +4457,7 @@
         <v>671.03440723100005</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4485,7 +4477,7 @@
         <v>14061.924162200001</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4505,7 +4497,7 @@
         <v>400.34839550599997</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4525,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4545,7 +4537,7 @@
         <v>5648417.5159900002</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4565,7 +4557,7 @@
         <v>8.2295758801299996</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4585,7 +4577,7 @@
         <v>4507.8373145599999</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4605,7 +4597,7 @@
         <v>1246.6833422100001</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4625,7 +4617,7 @@
         <v>814.40561579400003</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4645,7 +4637,7 @@
         <v>494.13522634600002</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4665,7 +4657,7 @@
         <v>116.695914012</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4685,7 +4677,7 @@
         <v>489.07463403399998</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4705,7 +4697,7 @@
         <v>84.081618429599999</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4725,7 +4717,7 @@
         <v>204.495537138</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4745,7 +4737,7 @@
         <v>1666553.06326</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4765,7 +4757,7 @@
         <v>1297807.71004</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4785,7 +4777,7 @@
         <v>28680.567408999999</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4805,7 +4797,7 @@
         <v>668534.52747099998</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4825,7 +4817,7 @@
         <v>403301.41936599999</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4845,7 +4837,7 @@
         <v>3557948.89218</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4865,7 +4857,7 @@
         <v>182460.136336</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4885,7 +4877,7 @@
         <v>301.53614059099999</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4905,7 +4897,7 @@
         <v>886.64580554600002</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4925,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4945,7 +4937,7 @@
         <v>82339.103600300004</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4965,7 +4957,7 @@
         <v>6543.7754903900004</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4985,7 +4977,7 @@
         <v>56234.781556499998</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5005,7 +4997,7 @@
         <v>9235.6964892199994</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5025,7 +5017,7 @@
         <v>10813.171249499999</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5045,7 +5037,7 @@
         <v>595.61049676300001</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5065,7 +5057,7 @@
         <v>90536.790056500002</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5085,7 +5077,7 @@
         <v>20503.3672463</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5105,7 +5097,7 @@
         <v>3045783.0356299998</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5125,7 +5117,7 @@
         <v>33.798362309300003</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5145,7 +5137,7 @@
         <v>2571759.8217699998</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5165,7 +5157,7 @@
         <v>230.45652006399999</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5185,7 +5177,7 @@
         <v>80429.205800600001</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5205,7 +5197,7 @@
         <v>43110.687813299999</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5225,7 +5217,7 @@
         <v>450.81404773200001</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5245,7 +5237,7 @@
         <v>202.29773442999999</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5265,7 +5257,7 @@
         <v>753.19890411899996</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5285,7 +5277,7 @@
         <v>2320547.7020899998</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5305,7 +5297,7 @@
         <v>2989.8740894799998</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5325,7 +5317,7 @@
         <v>112.427249277</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5345,7 +5337,7 @@
         <v>459981.127912</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5365,7 +5357,7 @@
         <v>14210767.2513</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5385,7 +5377,7 @@
         <v>298373.85833000002</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5405,7 +5397,7 @@
         <v>85595.275051899996</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -5425,7 +5417,7 @@
         <v>208748.32077399999</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -5445,7 +5437,7 @@
         <v>28328.511023999999</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -5465,7 +5457,7 @@
         <v>20183.634094500001</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5485,7 +5477,7 @@
         <v>34646.6950077</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5505,7 +5497,7 @@
         <v>7137778.9847100005</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5525,7 +5517,7 @@
         <v>20776044.558499999</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5545,7 +5537,7 @@
         <v>1549.8733218899999</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5565,7 +5557,7 @@
         <v>103.48211652800001</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5585,7 +5577,7 @@
         <v>45.351583042100003</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5605,7 +5597,7 @@
         <v>88.584506765399993</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5625,7 +5617,7 @@
         <v>75348.562771800003</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5645,7 +5637,7 @@
         <v>8282144.4942899998</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5665,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5685,7 +5677,7 @@
         <v>57580.337085300001</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5705,7 +5697,7 @@
         <v>10565841.2008</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5725,7 +5717,7 @@
         <v>6455.1074689999996</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5745,7 +5737,7 @@
         <v>365268.514096</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -5765,7 +5757,7 @@
         <v>7966.0749850499997</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -5785,7 +5777,7 @@
         <v>460926.083545</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5805,7 +5797,7 @@
         <v>4738.6298912100001</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5825,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -5845,7 +5837,7 @@
         <v>7588639.1742399996</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -5865,7 +5857,7 @@
         <v>97625.076658200007</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -5885,7 +5877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -5905,7 +5897,7 @@
         <v>6421.1404774399998</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -5925,7 +5917,7 @@
         <v>353800.63160700002</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -5945,7 +5937,7 @@
         <v>346942.35234099999</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -5965,7 +5957,7 @@
         <v>302368.90917399997</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -5985,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -6005,7 +5997,7 @@
         <v>385.06022109399998</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -6025,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -6045,7 +6037,7 @@
         <v>30749.1901679</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -6065,7 +6057,7 @@
         <v>316497.18943500001</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -6085,7 +6077,7 @@
         <v>418182.00326899998</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -6105,7 +6097,7 @@
         <v>387232.76616</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -6125,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -6145,7 +6137,7 @@
         <v>1446.5859171100001</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -6165,7 +6157,7 @@
         <v>57.774360355500001</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -6185,7 +6177,7 @@
         <v>16010501.8116</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -6205,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -6225,7 +6217,7 @@
         <v>346429.659545</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -6245,7 +6237,7 @@
         <v>221.50436956300001</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -6265,7 +6257,7 @@
         <v>102.73207222800001</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -6285,7 +6277,7 @@
         <v>27840.1399499</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -6305,7 +6297,7 @@
         <v>410233.18651299999</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -6325,7 +6317,7 @@
         <v>190273.54264199999</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -6345,7 +6337,7 @@
         <v>1061863.92502</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -6365,7 +6357,7 @@
         <v>61320.040849099998</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -6385,7 +6377,7 @@
         <v>338376.53587199998</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -6405,7 +6397,7 @@
         <v>285377.339209</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -6425,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -6445,7 +6437,7 @@
         <v>67647.429125299997</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -6465,7 +6457,7 @@
         <v>494088.64426700003</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -6485,7 +6477,7 @@
         <v>742.00008106400003</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -6505,7 +6497,7 @@
         <v>227.70746576100001</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -6525,7 +6517,7 @@
         <v>516.86693198099999</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -6545,7 +6537,7 @@
         <v>410.62924072599998</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -6565,7 +6557,7 @@
         <v>421.44482163100002</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -6585,7 +6577,7 @@
         <v>2747.1925533100002</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -6605,7 +6597,7 @@
         <v>60612.94472</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -6625,7 +6617,7 @@
         <v>59302.961951800004</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -6645,7 +6637,7 @@
         <v>2312219.8093500002</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -6665,7 +6657,7 @@
         <v>163580.81419599999</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -6685,7 +6677,7 @@
         <v>2548.5363789100002</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -6705,7 +6697,7 @@
         <v>33345.8736164</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -6725,7 +6717,7 @@
         <v>21857.666734599999</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -6745,7 +6737,7 @@
         <v>27052.229671100002</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -6765,7 +6757,7 @@
         <v>211.84236099099999</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -6785,7 +6777,7 @@
         <v>8054.1592013099998</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -6805,7 +6797,7 @@
         <v>19972.096487300001</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -6825,7 +6817,7 @@
         <v>1052738.28416</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -6845,7 +6837,7 @@
         <v>4816.9270940400002</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -6865,7 +6857,7 @@
         <v>324432.986041</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -6885,7 +6877,7 @@
         <v>161914.95016099999</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -6905,7 +6897,7 @@
         <v>123157.30224400001</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -6925,7 +6917,7 @@
         <v>108878.435275</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -6945,7 +6937,7 @@
         <v>126869.66831199999</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -6965,7 +6957,7 @@
         <v>6.4373398994700004</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -6985,7 +6977,7 @@
         <v>2356010.8965799999</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -7005,7 +6997,7 @@
         <v>180750.24839399999</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -7025,7 +7017,7 @@
         <v>21883.9685388</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -7045,7 +7037,7 @@
         <v>255422.05060700001</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -7065,7 +7057,7 @@
         <v>396629.350133</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -7085,7 +7077,7 @@
         <v>7087757.2894400004</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -7105,7 +7097,7 @@
         <v>31525.060452099999</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -7125,7 +7117,7 @@
         <v>14335.5013182</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -7145,7 +7137,7 @@
         <v>580584.40030400001</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -7165,7 +7157,7 @@
         <v>807.86030081499996</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -7185,7 +7177,7 @@
         <v>13527.641017399999</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -7205,7 +7197,7 @@
         <v>4242202.6364900004</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -7225,7 +7217,7 @@
         <v>508496.82225600001</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -7245,7 +7237,7 @@
         <v>4050319.9699900001</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -7265,7 +7257,7 @@
         <v>19934.998088</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -7285,7 +7277,7 @@
         <v>2934933.03302</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -7305,7 +7297,7 @@
         <v>14.335518412600001</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -7325,7 +7317,7 @@
         <v>7940106.8779300004</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -7345,7 +7337,7 @@
         <v>639.49241018700002</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -7365,7 +7357,7 @@
         <v>87443.117178800007</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -7385,7 +7377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -7405,7 +7397,7 @@
         <v>269982.88066600001</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -7425,7 +7417,7 @@
         <v>5497207.84473</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -7445,7 +7437,7 @@
         <v>81.886252697100005</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -7465,7 +7457,7 @@
         <v>373.24650193899998</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -7485,7 +7477,7 @@
         <v>1150.00425348</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -7505,7 +7497,7 @@
         <v>1076021.5612300001</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -7525,7 +7517,7 @@
         <v>438.46054412799998</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -7545,7 +7537,7 @@
         <v>503.05656069299999</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -7565,7 +7557,7 @@
         <v>8927.1775831699997</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -7585,7 +7577,7 @@
         <v>316742.09145599999</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -7605,7 +7597,7 @@
         <v>739349.40997699997</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -7625,7 +7617,7 @@
         <v>2430692.43328</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -7645,7 +7637,7 @@
         <v>5666769.3870999999</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -7665,7 +7657,7 @@
         <v>13942.9134469</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -7685,7 +7677,7 @@
         <v>1955.2626404600001</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -7705,7 +7697,7 @@
         <v>22115.194353399998</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -7725,7 +7717,7 @@
         <v>2411121.1016600002</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -7745,7 +7737,7 @@
         <v>37081.918228299997</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -7765,7 +7757,7 @@
         <v>704541.44862000004</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -7785,7 +7777,7 @@
         <v>450335.61641199997</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -7805,7 +7797,7 @@
         <v>25993.402267199999</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -7825,7 +7817,7 @@
         <v>16754.8293423</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -7845,7 +7837,7 @@
         <v>4265.4876020000002</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -7865,7 +7857,7 @@
         <v>227317.150242</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -7885,7 +7877,7 @@
         <v>554.81813196600001</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -7905,7 +7897,7 @@
         <v>156802.208277</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -7925,7 +7917,7 @@
         <v>21044.6009313</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -7945,7 +7937,7 @@
         <v>128.66841336900001</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -7965,7 +7957,7 @@
         <v>57052.042187899999</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -7985,7 +7977,7 @@
         <v>671177.36148900003</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -8005,7 +7997,7 @@
         <v>0.13790257386900001</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -8025,7 +8017,7 @@
         <v>2293602.2786099999</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -8045,7 +8037,7 @@
         <v>10096.123344899999</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -8065,7 +8057,7 @@
         <v>24.131469917</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
